--- a/biology/Histoire de la zoologie et de la botanique/Louise-Amélie_Leblois/Louise-Amélie_Leblois.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louise-Amélie_Leblois/Louise-Amélie_Leblois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louise-Am%C3%A9lie_Leblois</t>
+          <t>Louise-Amélie_Leblois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louise-Amélie Leblois est une scientifique française, née le 10 juillet 1860 à Strasbourg et morte le 16 mars 1940 dans le 7e arrondissement de Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louise-Amélie Leblois est une scientifique française, née le 10 juillet 1860 à Strasbourg et morte le 16 mars 1940 dans le 7e arrondissement de Paris.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louise-Am%C3%A9lie_Leblois</t>
+          <t>Louise-Amélie_Leblois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issue d'une famille protestante, elle est la fille du pasteur libéral Georges-Louis Leblois (1825-1898).
 Elle fut la première femme à obtenir en France un doctorat ès sciences en soutenant devant la faculté des sciences de Paris, le 31 mai 1888, une thèse de sciences naturelles consacrée à des « Recherches sur l'origine et le développement des canaux sécréteurs et des poches sécrétrices ». Le texte de sa thèse de doctorat fut édité la même année par la Librairie Masson.
